--- a/artfynd/A 60941-2025 artfynd.xlsx
+++ b/artfynd/A 60941-2025 artfynd.xlsx
@@ -5115,7 +5115,7 @@
         <v>130159358</v>
       </c>
       <c r="B41" t="n">
-        <v>91815</v>
+        <v>91819</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>130159350</v>
       </c>
       <c r="B62" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>130144908</v>
       </c>
       <c r="B63" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
